--- a/src/eai/assets/report.xlsx
+++ b/src/eai/assets/report.xlsx
@@ -49,10 +49,10 @@
     <t>No</t>
   </si>
   <si>
-    <t>The EAI has a format error</t>
-  </si>
-  <si>
-    <t>2022-09-19 19:32:05</t>
+    <t>The EAI Page not found error, the Url: http://www.ine.gov.mz/estatisticas/estatisticas-economicas/indice-de-actividades-economicas-iae/brochura_iae_no216-marco-2022.pdf</t>
+  </si>
+  <si>
+    <t>2022-09-20 01:39:12</t>
   </si>
 </sst>
 </file>

--- a/src/eai/assets/report.xlsx
+++ b/src/eai/assets/report.xlsx
@@ -49,10 +49,10 @@
     <t>No</t>
   </si>
   <si>
-    <t>The EAI Page not found error, the Url: http://www.ine.gov.mz/estatisticas/estatisticas-economicas/indice-de-actividades-economicas-iae/brochura_iae_no216-marco-2022.pdf</t>
-  </si>
-  <si>
-    <t>2022-09-20 01:39:12</t>
+    <t>The EAI has a format error</t>
+  </si>
+  <si>
+    <t>2022-09-20 18:09:38</t>
   </si>
 </sst>
 </file>

--- a/src/eai/assets/report.xlsx
+++ b/src/eai/assets/report.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
-    <t>Atualização dos indices de preços: Relatório da Ultima actividade</t>
+    <t>Atualização dos Índices Agregados do Volume de Negócios: Relatório da Ultima actividade</t>
   </si>
   <si>
     <t>Task Code</t>
@@ -37,22 +37,22 @@
     <t>date</t>
   </si>
   <si>
-    <t>T3</t>
-  </si>
-  <si>
-    <t>IPC</t>
-  </si>
-  <si>
-    <t>Consumer Price Index update</t>
+    <t>04-job</t>
+  </si>
+  <si>
+    <t>Economic Activity Index</t>
+  </si>
+  <si>
+    <t>Economic Activity Index update</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>The EAI has a format error</t>
-  </si>
-  <si>
-    <t>2022-09-20 18:09:38</t>
+    <t>Was not able to save the task of CPI.</t>
+  </si>
+  <si>
+    <t>2022-09-21 23:25:44</t>
   </si>
 </sst>
 </file>

--- a/src/eai/assets/report.xlsx
+++ b/src/eai/assets/report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Atualização dos Índices Agregados do Volume de Negócios: Relatório da Ultima actividade</t>
   </si>
@@ -49,10 +49,7 @@
     <t>No</t>
   </si>
   <si>
-    <t>Was not able to save the task of CPI.</t>
-  </si>
-  <si>
-    <t>2022-09-21 23:25:44</t>
+    <t>The EAI has a format error</t>
   </si>
 </sst>
 </file>
@@ -494,8 +491,8 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
+      <c r="G4">
+        <v>44826.64751933177</v>
       </c>
     </row>
   </sheetData>

--- a/src/eai/assets/report.xlsx
+++ b/src/eai/assets/report.xlsx
@@ -49,7 +49,7 @@
     <t>No</t>
   </si>
   <si>
-    <t>The EAI has a format error</t>
+    <t>Índices do Volume de Negócios: Invalid indicator sheet</t>
   </si>
 </sst>
 </file>
@@ -492,7 +492,7 @@
         <v>11</v>
       </c>
       <c r="G4">
-        <v>44826.64751933177</v>
+        <v>44827.56480612321</v>
       </c>
     </row>
   </sheetData>

--- a/src/eai/assets/report.xlsx
+++ b/src/eai/assets/report.xlsx
@@ -492,7 +492,7 @@
         <v>11</v>
       </c>
       <c r="G4">
-        <v>44827.56480612321</v>
+        <v>44827.64238668215</v>
       </c>
     </row>
   </sheetData>

--- a/src/eai/assets/report.xlsx
+++ b/src/eai/assets/report.xlsx
@@ -49,7 +49,7 @@
     <t>No</t>
   </si>
   <si>
-    <t>Índices do Volume de Negócios: Invalid indicator sheet</t>
+    <t>aggregate Economic Activities Index: has a format error on indices do volume de negócios</t>
   </si>
 </sst>
 </file>
@@ -492,7 +492,7 @@
         <v>11</v>
       </c>
       <c r="G4">
-        <v>44827.64238668215</v>
+        <v>44827.70537058497</v>
       </c>
     </row>
   </sheetData>
